--- a/OpenGLTutorials/Note.xlsx
+++ b/OpenGLTutorials/Note.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPPDEV\Projects\OpenGLTests\OpenGLTutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6168C06D-4321-4836-81D2-52F1C5EB6499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F35B7CC-FEC2-4C27-AEE9-4BD3DB53A011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Note for future updates or changes</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Update</t>
+  </si>
+  <si>
+    <t>Add means for drawing lines with different width</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,6 +513,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OpenGLTutorials/Note.xlsx
+++ b/OpenGLTutorials/Note.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPPDEV\Projects\OpenGLTests\OpenGLTutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F35B7CC-FEC2-4C27-AEE9-4BD3DB53A011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CC841A-26CC-4F65-A451-2212970E11E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Note for future updates or changes</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Add means for drawing lines with different width</t>
+  </si>
+  <si>
+    <t>As for the 3rd task, need to create separate classes to use in the cpp code and to draw the lines themselves, so that you can define different implementations of drawing in one class.And so should be in other graphic classes</t>
   </si>
 </sst>
 </file>
@@ -418,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,6 +530,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="13" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OpenGLTutorials/Note.xlsx
+++ b/OpenGLTutorials/Note.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPPDEV\Projects\OpenGLTests\OpenGLTutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CC841A-26CC-4F65-A451-2212970E11E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8213F5-2BC4-40CD-B0FB-6304D4B995CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Note for future updates or changes</t>
   </si>
@@ -67,6 +76,18 @@
   </si>
   <si>
     <t>As for the 3rd task, need to create separate classes to use in the cpp code and to draw the lines themselves, so that you can define different implementations of drawing in one class.And so should be in other graphic classes</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Implement means to use VAO as a batch for many objects</t>
+  </si>
+  <si>
+    <t>Create incapsulation for VBO</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -421,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,7 +455,7 @@
     <col min="3" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -443,38 +464,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="1"/>
       <c r="D2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
@@ -487,8 +508,11 @@
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -501,8 +525,11 @@
       <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -515,8 +542,11 @@
       <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>3</v>
       </c>
@@ -529,8 +559,11 @@
       <c r="D12" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="E12" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -542,6 +575,43 @@
       </c>
       <c r="D13" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
